--- a/test/digio_leave.xlsx
+++ b/test/digio_leave.xlsx
@@ -193,7 +193,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="20"/>
     <cellStyle name="Excel Built-in Normal 1" xfId="21"/>
   </cellStyles>
 </styleSheet>
@@ -207,13 +207,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="135" zoomScaleNormal="135" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="11.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
